--- a/5_results/5_3_mix/feature_importance_set_5.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_5.xlsx
@@ -472,322 +472,322 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.02141303620851991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.002467292752085994</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>2.07826979512117e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.02649322608667481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.016332846330365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.004040892601448931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.001309635698001417</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>0.001157105845579701</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.006737450604722814</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.001344334598175049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.002578595788036009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0005277354821749728</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.0001992691797247942</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.00366521043991379</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.001491981136158228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.001530295490897449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0003619275087917669</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.0003490204860246374</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.002275509233869474</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.0007850817479254228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.001449482203523589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0006080947358045156</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.002982644560728696</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.002701557669307517</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.0001974067377396608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0003752429915477418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.000200188886216289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.006895556462102924</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0007874346751715296</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-3.694869207604613e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>0.0003509337219228525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0.0002283751185566431</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.01319431302521282</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.000821161247510561</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-0.0001192938036648559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>0.0001069922660620337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>4.818449738278756e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.003839032618066417</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0.0002062048121537215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>7.779719970345963e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>6.362614967605484e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>6.669200442479352e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.04991976155317489</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0.0002009459085681643</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>-7.369360921605467e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>4.196137926126831e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>9.382849645846647e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.1869504831514494</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>2.35155550316889e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>-1.512327917943524e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>7.850462293418876e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>1.616421036706927e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-1.616421036706927e-16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="15">
@@ -797,147 +797,147 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>-4.440892098500626e-17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.9110960958218894</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>8.079851412749889e-17</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>-1.696163560975114e-16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>-6.661338147750939e-17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.96475800154489</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>5.859405363499577e-17</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-1.918208165900146e-16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>-6.661338147750939e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.96475800154489</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>5.859405363499577e-17</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>-1.918208165900146e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_5.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_5.xlsx
@@ -468,476 +468,476 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02141303620851991</v>
+        <v>0.05874663398789424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002467292752085994</v>
+        <v>0.004052104745554693</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07826979512117e-05</v>
+        <v>2.699118673487996e-06</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02649322608667481</v>
+        <v>0.06708997366503075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016332846330365</v>
+        <v>0.05040329431075773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004040892601448931</v>
+        <v>0.01847377621374344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001309635698001417</v>
+        <v>0.001682689331449522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001157105845579701</v>
+        <v>8.16930906824356e-06</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006737450604722814</v>
+        <v>0.02193845680443614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001344334598175049</v>
+        <v>0.01500909562305075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002578595788036009</v>
+        <v>0.01142702239007061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005277354821749728</v>
+        <v>0.002038576624998936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001992691797247942</v>
+        <v>0.0001165598201235909</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00366521043991379</v>
+        <v>0.01562447983706667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001491981136158228</v>
+        <v>0.007229564943074539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001530295490897449</v>
+        <v>0.01137443977155277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003619275087917669</v>
+        <v>0.001224003428147116</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003490204860246374</v>
+        <v>1.584586135306346e-05</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002275509233869474</v>
+        <v>0.0138946797476329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0007850817479254228</v>
+        <v>0.008854199795472639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001449482203523589</v>
+        <v>0.006814977972703961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006080947358045156</v>
+        <v>0.001715873689105758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002982644560728696</v>
+        <v>0.0004440377106420518</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002701557669307517</v>
+        <v>0.01034798561446741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001974067377396608</v>
+        <v>0.003281970330940513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003752429915477418</v>
+        <v>0.006062126702628489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000200188886216289</v>
+        <v>0.001126570928984839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006895556462102924</v>
+        <v>0.0001367657233164897</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007874346751715296</v>
+        <v>0.00838175181627324</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.694869207604613e-05</v>
+        <v>0.003742501588983738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003509337219228525</v>
+        <v>0.005681190086892762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002283751185566431</v>
+        <v>0.001013711754108031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01319431302521282</v>
+        <v>0.0001166452180453375</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000821161247510561</v>
+        <v>0.0077684365995866</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0001192938036648559</v>
+        <v>0.003593943574198924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001069922660620337</v>
+        <v>0.003317427739284495</v>
       </c>
       <c r="C9" t="n">
-        <v>4.818449738278756e-05</v>
+        <v>0.0005823132187323601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003839032618066417</v>
+        <v>0.0001093875162029933</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002062048121537215</v>
+        <v>0.00451641870507842</v>
       </c>
       <c r="G9" t="n">
-        <v>7.779719970345963e-06</v>
+        <v>0.00211843677349057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.362614967605484e-05</v>
+        <v>0.002840790111502134</v>
       </c>
       <c r="C10" t="n">
-        <v>6.669200442479352e-05</v>
+        <v>0.0006608416858575521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04991976155317489</v>
+        <v>0.0003274242608233836</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002009459085681643</v>
+        <v>0.004201472276485589</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.369360921605467e-05</v>
+        <v>0.001480107946518679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.196137926126831e-06</v>
+        <v>0.002479051985778447</v>
       </c>
       <c r="C11" t="n">
-        <v>9.382849645846647e-06</v>
+        <v>0.0005289717020564709</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1869504831514494</v>
+        <v>0.0002343438739666929</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>2.35155550316889e-05</v>
+        <v>0.003568212031478606</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.512327917943524e-05</v>
+        <v>0.001389891940078287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.002187474968672376</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0004193806792622601</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.0001544730689771666</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.003050985583730351</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.0013239643536144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.001609045303818557</v>
       </c>
       <c r="C13" t="n">
-        <v>7.850462293418876e-17</v>
+        <v>0.0002391298653305008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>5.685399221038616e-05</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.616421036706927e-16</v>
+        <v>0.002101417001660036</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.616421036706927e-16</v>
+        <v>0.001116673605977078</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.001602642953938949</v>
       </c>
       <c r="C14" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0005476700070768602</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9110960958218894</v>
+        <v>0.001409750070017234</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.00273030306811413</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.0004749828397637673</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.0009247690474508685</v>
       </c>
       <c r="C15" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0003019928280990656</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9110960958218894</v>
+        <v>0.001190349951953646</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.001546576454491302</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.0003029616404104352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.0008907827591309259</v>
       </c>
       <c r="C16" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0003196774607614855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9110960958218894</v>
+        <v>0.001689727063142816</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.001549003069250881</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.0002325624490109709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.440892098500626e-17</v>
+        <v>0.0004261378175877129</v>
       </c>
       <c r="C17" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0001134562651253279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9110960958218894</v>
+        <v>0.0005499505807150868</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>8.079851412749889e-17</v>
+        <v>0.0006597458356129939</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.696163560975114e-16</v>
+        <v>0.0001925297995624318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.661338147750939e-17</v>
+        <v>0.0004239589812039313</v>
       </c>
       <c r="C18" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>6.391674369739924e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.96475800154489</v>
+        <v>6.015840343931084e-05</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>5.859405363499577e-17</v>
+        <v>0.0005555644399001564</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.918208165900146e-16</v>
+        <v>0.0002923535225077061</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6.661338147750939e-17</v>
+        <v>0.00030308831814303</v>
       </c>
       <c r="C19" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>4.120092122202877e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.96475800154489</v>
+        <v>3.99858995240165e-05</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>5.859405363499577e-17</v>
+        <v>0.0003879215843964352</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.918208165900146e-16</v>
+        <v>0.0002182550518896247</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0.0001572593816562495</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.853397817883868e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.005505127222622355</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0.000318961928181409</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>-4.443164868909999e-06</v>
       </c>
     </row>
   </sheetData>
